--- a/metabolomics/metabolomics.xlsx
+++ b/metabolomics/metabolomics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Carb_CRDS/metabolomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{65A1EADE-A5EC-4197-BF12-2095CCA4FB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A894C2A-4A03-46D0-9F17-7845E976FE25}"/>
+  <xr:revisionPtr revIDLastSave="452" documentId="8_{65A1EADE-A5EC-4197-BF12-2095CCA4FB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F3F3C1C-9C49-4E2A-ADD4-DE15FF6EB201}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E71A29DD-9D25-47BD-B0B7-A5CB770DDAA9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E71A29DD-9D25-47BD-B0B7-A5CB770DDAA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="60">
   <si>
     <t>Acetate</t>
   </si>
@@ -66,32 +66,161 @@
     <t>Uracil</t>
   </si>
   <si>
-    <t>S07</t>
-  </si>
-  <si>
-    <t>S29</t>
-  </si>
-  <si>
-    <t>S34</t>
-  </si>
-  <si>
-    <t>S05</t>
-  </si>
-  <si>
-    <t>S08</t>
-  </si>
-  <si>
-    <t>S32</t>
-  </si>
-  <si>
     <t>Compound</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Formate</t>
+  </si>
+  <si>
+    <t>Glycerol</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
+    <t>I-S34</t>
+  </si>
+  <si>
+    <t>I-S29</t>
+  </si>
+  <si>
+    <t>I-S07</t>
+  </si>
+  <si>
+    <t>S-S05</t>
+  </si>
+  <si>
+    <t>S-S08</t>
+  </si>
+  <si>
+    <t>S-S32</t>
+  </si>
+  <si>
+    <t>I-S03</t>
+  </si>
+  <si>
+    <t>I-S06</t>
+  </si>
+  <si>
+    <t>I-S49</t>
+  </si>
+  <si>
+    <t>I-S50</t>
+  </si>
+  <si>
+    <t>Alanine</t>
+  </si>
+  <si>
+    <t>Glutamine</t>
+  </si>
+  <si>
+    <t>Glycerate</t>
+  </si>
+  <si>
+    <t>Isoleucine</t>
+  </si>
+  <si>
+    <t>Leucine</t>
+  </si>
+  <si>
+    <t>Lysine</t>
+  </si>
+  <si>
+    <t>Mannitol</t>
+  </si>
+  <si>
+    <t>Proline</t>
+  </si>
+  <si>
+    <t>Pyruvate</t>
+  </si>
+  <si>
+    <t>Sucrose</t>
+  </si>
+  <si>
+    <t>Valine</t>
+  </si>
+  <si>
+    <t>myo-Inositol</t>
+  </si>
+  <si>
+    <t>2-Oxoglutarate</t>
+  </si>
+  <si>
+    <t>Arginine</t>
+  </si>
+  <si>
+    <t>Aspartate</t>
+  </si>
+  <si>
+    <t>Creatine</t>
+  </si>
+  <si>
+    <t>Creatinine</t>
+  </si>
+  <si>
+    <t>Ornithine</t>
+  </si>
+  <si>
+    <t>Tyrosine</t>
+  </si>
+  <si>
+    <t>I-S10</t>
+  </si>
+  <si>
+    <t>I-S21</t>
+  </si>
+  <si>
+    <t>I-S30</t>
+  </si>
+  <si>
+    <t>I-S37</t>
+  </si>
+  <si>
+    <t>I-S59</t>
+  </si>
+  <si>
+    <t>I-S60</t>
+  </si>
+  <si>
+    <t>I-S61</t>
+  </si>
+  <si>
+    <t>2-Hydroxybutyrate</t>
+  </si>
+  <si>
+    <t>Glucose-1-phosphate</t>
+  </si>
+  <si>
+    <t>Succinate</t>
+  </si>
+  <si>
+    <t>S-S24</t>
+  </si>
+  <si>
+    <t>S-S12</t>
+  </si>
+  <si>
+    <t>S-S31</t>
+  </si>
+  <si>
+    <t>S-S39</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>O-phosphoserine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,13 +229,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,11 +281,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,271 +604,2610 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9599765-BDA9-4E72-B3F2-BA899DB92D8B}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:U1048576"/>
+      <selection sqref="A1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="7" customWidth="1"/>
+    <col min="2" max="22" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="5">
+        <v>1.4291</v>
+      </c>
+      <c r="U2" s="5">
+        <v>1.4291</v>
+      </c>
+      <c r="V2" s="5">
+        <v>1.4291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.2077</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.1195</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.1477</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>245.10470000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <v>224.98609999999999</v>
+      </c>
+      <c r="D4" s="5">
+        <v>148.0368</v>
+      </c>
+      <c r="E4" s="5">
+        <v>442.94200000000001</v>
+      </c>
+      <c r="F4" s="5">
+        <v>195.46119999999999</v>
+      </c>
+      <c r="G4" s="5">
+        <v>246.07980000000001</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1070.1874</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.6803999999999999</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1.4515</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1.9741</v>
+      </c>
+      <c r="L4" s="5">
+        <v>641.18939999999998</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="N4" s="5">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="P4" s="5">
+        <v>10.738200000000001</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>12.148999999999999</v>
+      </c>
+      <c r="R4" s="5">
+        <v>17.069500000000001</v>
+      </c>
+      <c r="S4" s="5">
+        <v>13.904400000000001</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0.50680000000000003</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0.50680000000000003</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0.50680000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="5">
+        <v>12.3133</v>
+      </c>
+      <c r="J5" s="5">
+        <v>8.4550999999999998</v>
+      </c>
+      <c r="K5" s="5">
+        <v>12.3133</v>
+      </c>
+      <c r="L5" s="5">
+        <v>4.8689</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2.1206999999999998</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1.3553999999999999</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" s="5">
+        <v>1.2657</v>
+      </c>
+      <c r="U5" s="5">
+        <v>1.2657</v>
+      </c>
+      <c r="V5" s="5">
+        <v>1.2657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.50629999999999997</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.15110000000000001</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.6522</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" s="5">
+        <v>1.7618</v>
+      </c>
+      <c r="U6" s="5">
+        <v>1.7618</v>
+      </c>
+      <c r="V6" s="5">
+        <v>1.7618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.56259999999999999</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43.557400000000001</v>
+      </c>
+      <c r="C8" s="5">
+        <v>63.898800000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>29.303599999999999</v>
+      </c>
+      <c r="E8" s="5">
+        <v>52.232599999999998</v>
+      </c>
+      <c r="F8" s="5">
+        <v>88.837400000000002</v>
+      </c>
+      <c r="G8" s="5">
+        <v>101.6386</v>
+      </c>
+      <c r="H8" s="5">
+        <v>54.787500000000001</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2.6823000000000001</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2.6779999999999999</v>
+      </c>
+      <c r="K8" s="5">
+        <v>4.1327999999999996</v>
+      </c>
+      <c r="L8" s="5">
+        <v>20.921900000000001</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1.2539</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1.2539</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1.2539</v>
+      </c>
+      <c r="S8" s="5">
+        <v>3.9613999999999998</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1.2539</v>
+      </c>
+      <c r="U8" s="5">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="V8" s="5">
+        <v>1.2421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="N9" s="5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.29020000000000001</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.1825</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.21729999999999999</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.1308</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1.3432999999999999</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.47210000000000002</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2.7029999999999998</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1.3030999999999999</v>
+      </c>
+      <c r="L11" s="5">
+        <v>11.9777</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.45419999999999999</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="U11" s="5">
+        <v>1.1315</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0.73540000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.50719999999999998</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.68189999999999995</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.28739999999999999</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0.43609999999999999</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0.71650000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5">
+        <v>8.6547999999999998</v>
+      </c>
+      <c r="C13" s="5">
+        <v>8.6861999999999995</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6.4063999999999997</v>
+      </c>
+      <c r="E13" s="5">
+        <v>168.114</v>
+      </c>
+      <c r="F13" s="5">
+        <v>18.085799999999999</v>
+      </c>
+      <c r="G13" s="5">
+        <v>21.139199999999999</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3.5274000000000001</v>
+      </c>
+      <c r="I13" s="5">
+        <v>30.843499999999999</v>
+      </c>
+      <c r="J13" s="5">
+        <v>41.477699999999999</v>
+      </c>
+      <c r="K13" s="5">
+        <v>41.165900000000001</v>
+      </c>
+      <c r="L13" s="5">
+        <v>86.8947</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.39589999999999997</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1.3305</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="T13" s="5">
+        <v>8.7090999999999994</v>
+      </c>
+      <c r="U13" s="5">
+        <v>14.9247</v>
+      </c>
+      <c r="V13" s="5">
+        <v>8.7090999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5">
+        <v>17.999099999999999</v>
+      </c>
+      <c r="C14" s="5">
+        <v>24.3232</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5.0419</v>
+      </c>
+      <c r="E14" s="5">
+        <v>47.21</v>
+      </c>
+      <c r="F14" s="5">
+        <v>19.119499999999999</v>
+      </c>
+      <c r="G14" s="5">
+        <v>7.4972000000000003</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5.3833000000000002</v>
+      </c>
+      <c r="I14" s="5">
+        <v>8.3096999999999994</v>
+      </c>
+      <c r="J14" s="5">
+        <v>13.7438</v>
+      </c>
+      <c r="K14" s="5">
+        <v>13.3795</v>
+      </c>
+      <c r="L14" s="5">
+        <v>122.3685</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1.2032</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1.2819</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.64229999999999998</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>2.5868000000000002</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1.8677999999999999</v>
+      </c>
+      <c r="S14" s="5">
+        <v>4.5301999999999998</v>
+      </c>
+      <c r="T14" s="5">
+        <v>3.5425</v>
+      </c>
+      <c r="U14" s="5">
+        <v>6.7610000000000001</v>
+      </c>
+      <c r="V14" s="5">
+        <v>4.0441000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T15" s="5">
+        <v>4.3326000000000002</v>
+      </c>
+      <c r="U15" s="5">
+        <v>2.6806000000000001</v>
+      </c>
+      <c r="V15" s="5">
+        <v>4.3326000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5">
+        <v>58.884</v>
+      </c>
+      <c r="C16" s="5">
+        <v>40.781199999999998</v>
+      </c>
+      <c r="D16" s="5">
+        <v>8.3042999999999996</v>
+      </c>
+      <c r="E16" s="5">
+        <v>70.129099999999994</v>
+      </c>
+      <c r="F16" s="5">
+        <v>46.451599999999999</v>
+      </c>
+      <c r="G16" s="5">
+        <v>11.114800000000001</v>
+      </c>
+      <c r="H16" s="5">
+        <v>22.3781</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="5">
+        <v>2.6238999999999999</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.80769999999999997</v>
+      </c>
+      <c r="O16" s="5">
+        <v>2.6238999999999999</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1.6198999999999999</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>2.5829</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1.6198999999999999</v>
+      </c>
+      <c r="S16" s="5">
+        <v>2.8759999999999999</v>
+      </c>
+      <c r="T16" s="5">
+        <v>3.4940000000000002</v>
+      </c>
+      <c r="U16" s="5">
+        <v>7.1760999999999999</v>
+      </c>
+      <c r="V16" s="5">
+        <v>3.4940000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="5">
+        <v>5.617</v>
+      </c>
+      <c r="J17" s="5">
+        <v>5.617</v>
+      </c>
+      <c r="K17" s="5">
+        <v>5.617</v>
+      </c>
+      <c r="L17" s="5">
+        <v>163.15559999999999</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1.048</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.2742</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1.048</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="5">
+        <v>262.72030000000001</v>
+      </c>
+      <c r="J18" s="5">
+        <v>812.76599999999996</v>
+      </c>
+      <c r="K18" s="5">
+        <v>57.550699999999999</v>
+      </c>
+      <c r="L18" s="5">
+        <v>145.3854</v>
+      </c>
+      <c r="M18" s="5">
+        <v>3.5345</v>
+      </c>
+      <c r="N18" s="5">
+        <v>16.790400000000002</v>
+      </c>
+      <c r="O18" s="5">
+        <v>44.475299999999997</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2.9228999999999998</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1.2604</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1.419</v>
+      </c>
+      <c r="O19" s="5">
+        <v>2.5274999999999999</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>148.0368</v>
-      </c>
-      <c r="C2" s="3">
-        <v>442.94200000000001</v>
-      </c>
-      <c r="D2" s="3">
-        <v>195.46119999999999</v>
-      </c>
-      <c r="E2" s="3">
-        <v>10.738200000000001</v>
-      </c>
-      <c r="F2" s="3">
-        <v>12.148999999999999</v>
-      </c>
-      <c r="G2" s="3">
-        <v>13.904400000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>29.303599999999999</v>
-      </c>
-      <c r="C3" s="3">
-        <v>52.232599999999998</v>
-      </c>
-      <c r="D3" s="3">
-        <v>88.837400000000002</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.2539</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.2539</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3.9613999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>6.4063999999999997</v>
-      </c>
-      <c r="C4" s="3">
-        <v>168.114</v>
-      </c>
-      <c r="D4" s="3">
-        <v>18.085799999999999</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.39589999999999997</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1.3305</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.73619999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5.0419</v>
-      </c>
-      <c r="C5" s="3">
-        <v>47.21</v>
-      </c>
-      <c r="D5" s="3">
-        <v>19.119499999999999</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.64229999999999998</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.5868000000000002</v>
-      </c>
-      <c r="G5" s="3">
-        <v>4.5301999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>8.3042999999999996</v>
-      </c>
-      <c r="C6" s="3">
-        <v>70.129099999999994</v>
-      </c>
-      <c r="D6" s="3">
-        <v>46.451599999999999</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.6198999999999999</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2.5829</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2.8759999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="B20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1.7618</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.88529999999999998</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1.6765000000000001</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1.5748</v>
+      </c>
+      <c r="O20" s="5">
+        <v>2.6743000000000001</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="5">
+        <v>2.5626000000000002</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2.7471999999999999</v>
+      </c>
+      <c r="K21" s="5">
+        <v>3.7993000000000001</v>
+      </c>
+      <c r="L21" s="5">
+        <v>7.7317</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T21" s="5">
+        <v>1.0833999999999999</v>
+      </c>
+      <c r="U21" s="5">
+        <v>2.1097999999999999</v>
+      </c>
+      <c r="V21" s="5">
+        <v>1.0833999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B22" s="5">
+        <v>1.0446</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="D22" s="5">
         <v>0.95269999999999999</v>
       </c>
-      <c r="C7" s="3">
+      <c r="E22" s="5">
         <v>1.0105</v>
       </c>
-      <c r="D7" s="3">
+      <c r="F22" s="5">
         <v>4.532</v>
       </c>
-      <c r="E7" s="3">
+      <c r="G22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="5">
+        <v>4.4367999999999999</v>
+      </c>
+      <c r="J22" s="5">
+        <v>4.4166999999999996</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4.4367999999999999</v>
+      </c>
+      <c r="L22" s="5">
+        <v>34.993499999999997</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.8881</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="O22" s="5">
+        <v>1.4342999999999999</v>
+      </c>
+      <c r="P22" s="5">
         <v>0.24210000000000001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="Q22" s="5">
         <v>0.47449999999999998</v>
       </c>
-      <c r="G7" s="3">
+      <c r="R22" s="5">
+        <v>0.39340000000000003</v>
+      </c>
+      <c r="S22" s="5">
         <v>0.39800000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="T22" s="5">
+        <v>1.3011999999999999</v>
+      </c>
+      <c r="U22" s="5">
+        <v>2.1524999999999999</v>
+      </c>
+      <c r="V22" s="5">
+        <v>1.3098000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="5">
+        <v>4.9474999999999998</v>
+      </c>
+      <c r="J23" s="5">
+        <v>5.0147000000000004</v>
+      </c>
+      <c r="K23" s="5">
+        <v>13.9628</v>
+      </c>
+      <c r="L23" s="5">
+        <v>10.837400000000001</v>
+      </c>
+      <c r="M23" s="5">
+        <v>1.754</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="O23" s="5">
+        <v>1.6297999999999999</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T23" s="5">
+        <v>1.0034000000000001</v>
+      </c>
+      <c r="U23" s="5">
+        <v>3.3517000000000001</v>
+      </c>
+      <c r="V23" s="5">
+        <v>1.0093000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2.5257000000000001</v>
+      </c>
+      <c r="J24" s="5">
+        <v>2.5257000000000001</v>
+      </c>
+      <c r="K24" s="5">
+        <v>5.2232000000000003</v>
+      </c>
+      <c r="L24" s="5">
+        <v>20.503900000000002</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.21510000000000001</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.71550000000000002</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T24" s="5">
+        <v>2.8454999999999999</v>
+      </c>
+      <c r="U24" s="5">
+        <v>3.2393000000000001</v>
+      </c>
+      <c r="V24" s="5">
+        <v>2.8454999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="5">
+        <v>81.278199999999998</v>
+      </c>
+      <c r="J25" s="5">
+        <v>321.91550000000001</v>
+      </c>
+      <c r="K25" s="5">
+        <v>32.082999999999998</v>
+      </c>
+      <c r="L25" s="5">
+        <v>157.79580000000001</v>
+      </c>
+      <c r="M25" s="5">
+        <v>2.0385</v>
+      </c>
+      <c r="N25" s="5">
+        <v>5.3076999999999996</v>
+      </c>
+      <c r="O25" s="5">
+        <v>9.9017999999999997</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U25" s="5">
+        <v>21.6843</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B26" s="5">
+        <v>5.65</v>
+      </c>
+      <c r="C26" s="5">
+        <v>8.0204000000000004</v>
+      </c>
+      <c r="D26" s="5">
         <v>2.2101000000000002</v>
       </c>
-      <c r="C8" s="3">
+      <c r="E26" s="5">
         <v>44.959499999999998</v>
       </c>
-      <c r="D8" s="3">
+      <c r="F26" s="5">
         <v>4.9516</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G26" s="5">
+        <v>3.9958</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1.2023999999999999</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" s="5">
         <v>0.82130000000000003</v>
       </c>
-      <c r="F8" s="3">
+      <c r="Q26" s="5">
         <v>0.82130000000000003</v>
       </c>
-      <c r="G8" s="3">
+      <c r="R26" s="5">
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="S26" s="5">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="T26" s="5">
+        <v>1.0788</v>
+      </c>
+      <c r="U26" s="5">
+        <v>4.3390000000000004</v>
+      </c>
+      <c r="V26" s="5">
+        <v>1.0788</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="5">
+        <v>5.0635000000000003</v>
+      </c>
+      <c r="J27" s="5">
+        <v>6.8620999999999999</v>
+      </c>
+      <c r="K27" s="5">
+        <v>5.0635000000000003</v>
+      </c>
+      <c r="L27" s="5">
+        <v>30.0397</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M28" s="5">
+        <v>4.3061999999999996</v>
+      </c>
+      <c r="N28" s="5">
+        <v>4.3061999999999996</v>
+      </c>
+      <c r="O28" s="5">
+        <v>8.7457999999999991</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0.2296</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0.2296</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B30" s="5">
+        <v>0.64529999999999998</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="D30" s="5">
         <v>0.31940000000000002</v>
       </c>
-      <c r="C9" s="3">
+      <c r="E30" s="5">
         <v>0.5212</v>
       </c>
-      <c r="D9" s="3">
+      <c r="F30" s="5">
         <v>0.89400000000000002</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0.80989999999999995</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0.42230000000000001</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0.80989999999999995</v>
+      </c>
+      <c r="P30" s="5">
         <v>0.3422</v>
       </c>
-      <c r="F9" s="3">
+      <c r="Q30" s="5">
         <v>0.22650000000000001</v>
       </c>
-      <c r="G9" s="3">
+      <c r="R30" s="5">
+        <v>0.3533</v>
+      </c>
+      <c r="S30" s="5">
         <v>0.17080000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+      <c r="T30" s="5">
+        <v>0.71809999999999996</v>
+      </c>
+      <c r="U30" s="5">
+        <v>1.5112000000000001</v>
+      </c>
+      <c r="V30" s="5">
+        <v>0.71809999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" s="5">
+        <v>12.939299999999999</v>
+      </c>
+      <c r="J31" s="5">
+        <v>24.8124</v>
+      </c>
+      <c r="K31" s="5">
+        <v>29.927199999999999</v>
+      </c>
+      <c r="L31" s="5">
+        <v>50.332099999999997</v>
+      </c>
+      <c r="M31" s="5">
+        <v>1.7747999999999999</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.77410000000000001</v>
+      </c>
+      <c r="O31" s="5">
+        <v>3.0655999999999999</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T31" s="5">
+        <v>5.7199</v>
+      </c>
+      <c r="U31" s="5">
+        <v>10.4102</v>
+      </c>
+      <c r="V31" s="5">
+        <v>5.7199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B32" s="5">
+        <v>37.7547</v>
+      </c>
+      <c r="C32" s="5">
+        <v>25.450800000000001</v>
+      </c>
+      <c r="D32" s="5">
         <v>20.462700000000002</v>
       </c>
-      <c r="C10" s="3">
+      <c r="E32" s="5">
         <v>56.718899999999998</v>
       </c>
-      <c r="D10" s="3">
+      <c r="F32" s="5">
         <v>28.142099999999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G32" s="5">
+        <v>34.314799999999998</v>
+      </c>
+      <c r="H32" s="5">
+        <v>59.353900000000003</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="2">
+        <v>326.41019999999997</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P32" s="5">
         <v>1.6948000000000001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="Q32" s="5">
         <v>1.8169999999999999</v>
       </c>
-      <c r="G10" s="3">
+      <c r="R32" s="5">
+        <v>2.1997</v>
+      </c>
+      <c r="S32" s="5">
         <v>2.1581000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
+      <c r="T32" s="5">
+        <v>1.3297000000000001</v>
+      </c>
+      <c r="U32" s="5">
+        <v>1.6749000000000001</v>
+      </c>
+      <c r="V32" s="5">
+        <v>0.6865</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="5">
+        <v>2821.4645</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V33" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R34" s="5">
+        <v>5.2035999999999998</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="5">
+        <v>37.935299999999998</v>
+      </c>
+      <c r="J35" s="5">
+        <v>85.789199999999994</v>
+      </c>
+      <c r="K35" s="5">
+        <v>16.995699999999999</v>
+      </c>
+      <c r="L35" s="5">
+        <v>4.6917</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V35" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0.44790000000000002</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0.19989999999999999</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0.44790000000000002</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B37" s="5">
+        <v>1.0555000000000001</v>
+      </c>
+      <c r="C37" s="5">
         <v>1.0327</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D37" s="5">
+        <v>1.0327</v>
+      </c>
+      <c r="E37" s="5">
         <v>1.3545</v>
       </c>
-      <c r="D11" s="3">
+      <c r="F37" s="5">
         <v>1.1313</v>
       </c>
-      <c r="E11" s="3">
+      <c r="G37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P37" s="5">
         <v>0.2288</v>
       </c>
-      <c r="F11" s="3">
+      <c r="Q37" s="5">
         <v>0.2288</v>
       </c>
-      <c r="G11" s="3">
+      <c r="R37" s="5">
         <v>0.2288</v>
       </c>
+      <c r="S37" s="5">
+        <v>0.2288</v>
+      </c>
+      <c r="T37" s="5">
+        <v>0.254</v>
+      </c>
+      <c r="U37" s="5">
+        <v>1.4591000000000001</v>
+      </c>
+      <c r="V37" s="5">
+        <v>0.49230000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="5">
+        <v>2.9546000000000001</v>
+      </c>
+      <c r="J38" s="5">
+        <v>3.0394000000000001</v>
+      </c>
+      <c r="K38" s="5">
+        <v>5.7961</v>
+      </c>
+      <c r="L38" s="5">
+        <v>10.1487</v>
+      </c>
+      <c r="M38" s="5">
+        <v>1.2503</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="O38" s="5">
+        <v>1.2503</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T38" s="5">
+        <v>1.1575</v>
+      </c>
+      <c r="U38" s="5">
+        <v>4.1829000000000001</v>
+      </c>
+      <c r="V38" s="5">
+        <v>1.0325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J40" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>